--- a/flows/USHY_fund_flow_data.xlsx
+++ b/flows/USHY_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1599"/>
+  <dimension ref="A1:B1611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16425,6 +16425,126 @@
         <v>25.40111</v>
       </c>
     </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1600" t="n">
+        <v>25.39656</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1602" t="n">
+        <v>3.6161</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1603" t="n">
+        <v>-41.61988</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1604" t="n">
+        <v>-54.3255</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1605" t="n">
+        <v>-25.38921</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1606" t="n">
+        <v>1.815985</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1607" t="n">
+        <v>7.27318</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1608" t="n">
+        <v>25.44871</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1609" t="n">
+        <v>1.818325</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1610" t="n">
+        <v>-56.421703</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1611" t="n">
+        <v>-61.70014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
